--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chenxixi0422\專案\check_download_link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{145D0684-0869-4491-A46C-97F12285D25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07576D12-DAB9-4E88-86BC-C960111FDAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{839F4DFE-FC67-4A28-A508-4F807916392C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{839F4DFE-FC67-4A28-A508-4F807916392C}"/>
   </bookViews>
   <sheets>
-    <sheet name="10 rows" sheetId="1" r:id="rId1"/>
+    <sheet name="10_rows" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -756,14 +757,7 @@
     <cellStyle name="一般 2" xfId="2" xr:uid="{E485B2DF-6912-48F5-9EAB-ED1E6FC38A46}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1182,7 +1176,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2180,4 +2174,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BB27E-BFD9-4A28-A7C9-CFA703E95211}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chenxixi0422\專案\check_download_link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07576D12-DAB9-4E88-86BC-C960111FDAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7998AA44-A3DA-4A7B-9C3A-224085E6646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{839F4DFE-FC67-4A28-A508-4F807916392C}"/>
   </bookViews>
   <sheets>
     <sheet name="10_rows" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="5_rows" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="158">
   <si>
     <t>DQHB</t>
   </si>
@@ -757,7 +757,112 @@
     <cellStyle name="一般 2" xfId="2" xr:uid="{E485B2DF-6912-48F5-9EAB-ED1E6FC38A46}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1176,7 +1281,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2124,49 +2229,49 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C11">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 G1">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1 O1">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:T1 D1:F1 H1:J1 V1:W1">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="Q6" r:id="rId1" xr:uid="{CA97E099-4914-49D8-BD61-0F4BBFA1E3FC}"/>
@@ -2178,13 +2283,576 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BB27E-BFD9-4A28-A7C9-CFA703E95211}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="9" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="1">
+        <v>202101</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="1">
+        <v>202101</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1984</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1">
+        <v>202202</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="1">
+        <v>198401</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1994</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1">
+        <v>202104</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="1">
+        <v>201801</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="15.75">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1999</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="1">
+        <v>202104</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="1">
+        <v>199901</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1999</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="15.75">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="1">
+        <v>202302</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" s="1">
+        <v>201001</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1 G1">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1 O1">
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:T1 D1:F1 H1:J1 V1:W1">
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:C6">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{D17E7E1F-7B21-4563-A6D2-F35AABD44BB3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>